--- a/RNN_python/output_data_test/anom_data3.xlsx
+++ b/RNN_python/output_data_test/anom_data3.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43063</v>
+        <v>43061</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.244503285993147</v>
+        <v>-13.48624376198057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43063.04166666666</v>
+        <v>43061.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.174088754412224</v>
+        <v>19.84694125471403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43063.08333333334</v>
+        <v>43061.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2.883763178750343</v>
+        <v>24.67728928442743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43063.125</v>
+        <v>43061.125</v>
       </c>
       <c r="D5" t="n">
-        <v>8.095678960228867</v>
+        <v>22.28667290863845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43063.16666666666</v>
+        <v>43061.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>12.53075494438522</v>
+        <v>91.36453425409786</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43063.20833333334</v>
+        <v>43061.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>12.06700472784854</v>
+        <v>135.6671293090102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43063.25</v>
+        <v>43061.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11.02613812560401</v>
+        <v>192.9389422167689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43063.29166666666</v>
+        <v>43061.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>68.32293440954193</v>
+        <v>251.4039189986037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43063.33333333334</v>
+        <v>43061.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>370.3594310085696</v>
+        <v>299.8004240852017</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43063.375</v>
+        <v>43061.375</v>
       </c>
       <c r="D11" t="n">
-        <v>463.2826017239248</v>
+        <v>313.7270385667371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43063.41666666666</v>
+        <v>43061.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8422301355371</v>
+        <v>302.3061143134885</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43063.45833333334</v>
+        <v>43061.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>385.2632157925188</v>
+        <v>280.1235686285061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43063.5</v>
+        <v>43061.5</v>
       </c>
       <c r="D14" t="n">
-        <v>323.7596853245229</v>
+        <v>256.9549356552902</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43063.54166666666</v>
+        <v>43061.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>276.38829892078</v>
+        <v>232.1938284374602</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43063.58333333334</v>
+        <v>43061.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>233.714194690485</v>
+        <v>204.5986008610235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43063.625</v>
+        <v>43061.625</v>
       </c>
       <c r="D17" t="n">
-        <v>195.0064095348252</v>
+        <v>174.8912512868659</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43063.66666666666</v>
+        <v>43061.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>160.211953215868</v>
+        <v>145.5182702602135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43063.70833333334</v>
+        <v>43061.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>129.3073078842804</v>
+        <v>118.7988923193144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43063.75</v>
+        <v>43061.75</v>
       </c>
       <c r="D20" t="n">
-        <v>102.219587914825</v>
+        <v>95.68614589337784</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43063.79166666666</v>
+        <v>43061.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>78.80770498073684</v>
+        <v>76.28283839320997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43063.83333333334</v>
+        <v>43061.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>58.91609967637189</v>
+        <v>61.12140565124777</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43063.875</v>
+        <v>43061.875</v>
       </c>
       <c r="D23" t="n">
-        <v>42.4705912993945</v>
+        <v>51.50286970144161</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43063.91666666666</v>
+        <v>43061.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>29.5653169394534</v>
+        <v>48.75739355497667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43063.95833333334</v>
+        <v>43061.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>20.43106308928512</v>
+        <v>51.21990043868165</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43063</v>
+        <v>43061</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43063.04166666666</v>
+        <v>43061.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43063.08333333334</v>
+        <v>43061.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43063.125</v>
+        <v>43061.125</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43063.16666666666</v>
+        <v>43061.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43063.20833333334</v>
+        <v>43061.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43063.25</v>
+        <v>43061.25</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43063.29166666666</v>
+        <v>43061.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43063.33333333334</v>
+        <v>43061.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>436</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43063.375</v>
+        <v>43061.375</v>
       </c>
       <c r="D11" t="n">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43063.41666666666</v>
+        <v>43061.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43063.45833333334</v>
+        <v>43061.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43063.5</v>
+        <v>43061.5</v>
       </c>
       <c r="D14" t="n">
-        <v>279</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43063.54166666666</v>
+        <v>43061.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43063.58333333334</v>
+        <v>43061.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43063.625</v>
+        <v>43061.625</v>
       </c>
       <c r="D17" t="n">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43063.66666666666</v>
+        <v>43061.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43063.70833333334</v>
+        <v>43061.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43063.75</v>
+        <v>43061.75</v>
       </c>
       <c r="D20" t="n">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43063.79166666666</v>
+        <v>43061.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43063.83333333334</v>
+        <v>43061.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43063.875</v>
+        <v>43061.875</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43063.91666666666</v>
+        <v>43061.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43063.95833333334</v>
+        <v>43061.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data3.xlsx
+++ b/RNN_python/output_data_test/anom_data3.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43061</v>
+        <v>43063</v>
       </c>
       <c r="D2" t="n">
-        <v>-13.48624376198057</v>
+        <v>12.93449992204106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43061.04166666666</v>
+        <v>43063.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>19.84694125471403</v>
+        <v>3.565611886308403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43061.08333333334</v>
+        <v>43063.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>24.67728928442743</v>
+        <v>4.456230775934529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43061.125</v>
+        <v>43063.125</v>
       </c>
       <c r="D5" t="n">
-        <v>22.28667290863845</v>
+        <v>10.15216754592075</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43061.16666666666</v>
+        <v>43063.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>91.36453425409786</v>
+        <v>22.6048030754426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43061.20833333334</v>
+        <v>43063.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>135.6671293090102</v>
+        <v>39.48116858758705</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43061.25</v>
+        <v>43063.25</v>
       </c>
       <c r="D8" t="n">
-        <v>192.9389422167689</v>
+        <v>64.6299798333991</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43061.29166666666</v>
+        <v>43063.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>251.4039189986037</v>
+        <v>135.5559047289761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43061.33333333334</v>
+        <v>43063.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>299.8004240852017</v>
+        <v>289.6732748705114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43061.375</v>
+        <v>43063.375</v>
       </c>
       <c r="D11" t="n">
-        <v>313.7270385667371</v>
+        <v>405.7599505633016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43061.41666666666</v>
+        <v>43063.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>302.3061143134885</v>
+        <v>420.1138155806041</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43061.45833333334</v>
+        <v>43063.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>280.1235686285061</v>
+        <v>386.6114098209238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43061.5</v>
+        <v>43063.5</v>
       </c>
       <c r="D14" t="n">
-        <v>256.9549356552902</v>
+        <v>329.3327774625182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43061.54166666666</v>
+        <v>43063.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>232.1938284374602</v>
+        <v>256.7365738026886</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43061.58333333334</v>
+        <v>43063.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>204.5986008610235</v>
+        <v>198.5382161661068</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43061.625</v>
+        <v>43063.625</v>
       </c>
       <c r="D17" t="n">
-        <v>174.8912512868659</v>
+        <v>156.287700685381</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43061.66666666666</v>
+        <v>43063.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>145.5182702602135</v>
+        <v>120.2357479656641</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43061.70833333334</v>
+        <v>43063.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>118.7988923193144</v>
+        <v>89.28995578236035</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43061.75</v>
+        <v>43063.75</v>
       </c>
       <c r="D20" t="n">
-        <v>95.68614589337784</v>
+        <v>63.62163562016637</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43061.79166666666</v>
+        <v>43063.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>76.28283839320997</v>
+        <v>43.74622347183659</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43061.83333333334</v>
+        <v>43063.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>61.12140565124777</v>
+        <v>29.37728676018901</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43061.875</v>
+        <v>43063.875</v>
       </c>
       <c r="D23" t="n">
-        <v>51.50286970144161</v>
+        <v>19.58911282162272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43061.91666666666</v>
+        <v>43063.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>48.75739355497667</v>
+        <v>13.24841534909206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43061.95833333334</v>
+        <v>43063.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>51.21990043868165</v>
+        <v>49.18545343788999</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43061</v>
+        <v>43063</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43061.04166666666</v>
+        <v>43063.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43061.08333333334</v>
+        <v>43063.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43061.125</v>
+        <v>43063.125</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43061.16666666666</v>
+        <v>43063.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43061.20833333334</v>
+        <v>43063.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43061.25</v>
+        <v>43063.25</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43061.29166666666</v>
+        <v>43063.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43061.33333333334</v>
+        <v>43063.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43061.375</v>
+        <v>43063.375</v>
       </c>
       <c r="D11" t="n">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43061.41666666666</v>
+        <v>43063.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>515</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43061.45833333334</v>
+        <v>43063.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43061.5</v>
+        <v>43063.5</v>
       </c>
       <c r="D14" t="n">
-        <v>332</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43061.54166666666</v>
+        <v>43063.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43061.58333333334</v>
+        <v>43063.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43061.625</v>
+        <v>43063.625</v>
       </c>
       <c r="D17" t="n">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43061.66666666666</v>
+        <v>43063.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43061.70833333334</v>
+        <v>43063.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43061.75</v>
+        <v>43063.75</v>
       </c>
       <c r="D20" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43061.79166666666</v>
+        <v>43063.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43061.83333333334</v>
+        <v>43063.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43061.875</v>
+        <v>43063.875</v>
       </c>
       <c r="D23" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43061.91666666666</v>
+        <v>43063.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43061.95833333334</v>
+        <v>43063.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
